--- a/data/save_data/2022/alvarez_r. j..xlsx
+++ b/data/save_data/2022/alvarez_r. j..xlsx
@@ -502,7 +502,7 @@
         <v>-3</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>

--- a/data/save_data/2022/alvarez_r. j..xlsx
+++ b/data/save_data/2022/alvarez_r. j..xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F2" t="n">
         <v>-3</v>
